--- a/migforecasting/cities15-16/3/d3.xlsx
+++ b/migforecasting/cities15-16/3/d3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities15-16\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2173,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,24 +2219,12 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
